--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Il1rn-Il1r1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Il1rn-Il1r1.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.01596066666666667</v>
+        <v>0.09836499999999999</v>
       </c>
       <c r="H2">
-        <v>0.047882</v>
+        <v>0.295095</v>
       </c>
       <c r="I2">
-        <v>0.0002563172647803435</v>
+        <v>0.001274112831990382</v>
       </c>
       <c r="J2">
-        <v>0.0002563172647803435</v>
+        <v>0.001274112831990381</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.21972033333333</v>
+        <v>12.673913</v>
       </c>
       <c r="N2">
-        <v>39.659161</v>
+        <v>38.021739</v>
       </c>
       <c r="O2">
-        <v>0.2311669015805739</v>
+        <v>0.234043494199914</v>
       </c>
       <c r="P2">
-        <v>0.2311669015805739</v>
+        <v>0.234043494199914</v>
       </c>
       <c r="Q2">
-        <v>0.2109955496668889</v>
+        <v>1.246669452245</v>
       </c>
       <c r="R2">
-        <v>1.898959947002</v>
+        <v>11.220025070205</v>
       </c>
       <c r="S2">
-        <v>5.925206792087958E-05</v>
+        <v>0.0002981978192039769</v>
       </c>
       <c r="T2">
-        <v>5.925206792087958E-05</v>
+        <v>0.0002981978192039768</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>25</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.01596066666666667</v>
+        <v>0.09836499999999999</v>
       </c>
       <c r="H3">
-        <v>0.047882</v>
+        <v>0.295095</v>
       </c>
       <c r="I3">
-        <v>0.0002563172647803435</v>
+        <v>0.001274112831990382</v>
       </c>
       <c r="J3">
-        <v>0.0002563172647803435</v>
+        <v>0.001274112831990381</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>103.785567</v>
       </c>
       <c r="O3">
-        <v>0.6049494580123129</v>
+        <v>0.6388539132363013</v>
       </c>
       <c r="P3">
-        <v>0.6049494580123129</v>
+        <v>0.6388539132363011</v>
       </c>
       <c r="Q3">
-        <v>0.5521622798993333</v>
+        <v>3.402955765984999</v>
       </c>
       <c r="R3">
-        <v>4.969460519094</v>
+        <v>30.626601893865</v>
       </c>
       <c r="S3">
-        <v>0.0001550589904080673</v>
+        <v>0.0008139719686216413</v>
       </c>
       <c r="T3">
-        <v>0.0001550589904080673</v>
+        <v>0.000813971968621641</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.01596066666666667</v>
+        <v>0.09836499999999999</v>
       </c>
       <c r="H4">
-        <v>0.047882</v>
+        <v>0.295095</v>
       </c>
       <c r="I4">
-        <v>0.0002563172647803435</v>
+        <v>0.001274112831990382</v>
       </c>
       <c r="J4">
-        <v>0.0002563172647803435</v>
+        <v>0.001274112831990381</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.261089666666665</v>
+        <v>6.728406666666667</v>
       </c>
       <c r="N4">
-        <v>27.783269</v>
+        <v>20.18522</v>
       </c>
       <c r="O4">
-        <v>0.1619442279807586</v>
+        <v>0.1242504825987572</v>
       </c>
       <c r="P4">
-        <v>0.1619442279807586</v>
+        <v>0.1242504825987572</v>
       </c>
       <c r="Q4">
-        <v>0.1478131651397778</v>
+        <v>0.6618397217666667</v>
       </c>
       <c r="R4">
-        <v>1.330318486258</v>
+        <v>5.9565574959</v>
       </c>
       <c r="S4">
-        <v>4.150910156299241E-05</v>
+        <v>0.0001583091342600742</v>
       </c>
       <c r="T4">
-        <v>4.150910156299242E-05</v>
+        <v>0.0001583091342600741</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.01596066666666667</v>
+        <v>0.09836499999999999</v>
       </c>
       <c r="H5">
-        <v>0.047882</v>
+        <v>0.295095</v>
       </c>
       <c r="I5">
-        <v>0.0002563172647803435</v>
+        <v>0.001274112831990382</v>
       </c>
       <c r="J5">
-        <v>0.0002563172647803435</v>
+        <v>0.001274112831990381</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.110909</v>
+        <v>0.1544473333333333</v>
       </c>
       <c r="N5">
-        <v>0.332727</v>
+        <v>0.463342</v>
       </c>
       <c r="O5">
-        <v>0.001939412426354648</v>
+        <v>0.002852109965027549</v>
       </c>
       <c r="P5">
-        <v>0.001939412426354648</v>
+        <v>0.002852109965027548</v>
       </c>
       <c r="Q5">
-        <v>0.001770181579333333</v>
+        <v>0.01519221194333333</v>
       </c>
       <c r="R5">
-        <v>0.015931634214</v>
+        <v>0.13672990749</v>
       </c>
       <c r="S5">
-        <v>4.971048884042327E-07</v>
+        <v>3.633909904689238E-06</v>
       </c>
       <c r="T5">
-        <v>4.971048884042327E-07</v>
+        <v>3.633909904689237E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.5969289999999999</v>
+        <v>0.03342533333333333</v>
       </c>
       <c r="H6">
-        <v>1.790787</v>
+        <v>0.100276</v>
       </c>
       <c r="I6">
-        <v>0.009586266773405391</v>
+        <v>0.0004329552799629527</v>
       </c>
       <c r="J6">
-        <v>0.009586266773405391</v>
+        <v>0.0004329552799629526</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>13.21972033333333</v>
+        <v>12.673913</v>
       </c>
       <c r="N6">
-        <v>39.659161</v>
+        <v>38.021739</v>
       </c>
       <c r="O6">
-        <v>0.2311669015805739</v>
+        <v>0.234043494199914</v>
       </c>
       <c r="P6">
-        <v>0.2311669015805739</v>
+        <v>0.234043494199914</v>
       </c>
       <c r="Q6">
-        <v>7.891234438856333</v>
+        <v>0.4236297666626667</v>
       </c>
       <c r="R6">
-        <v>71.02110994970701</v>
+        <v>3.812667899964</v>
       </c>
       <c r="S6">
-        <v>0.00221602758773293</v>
+        <v>0.0001013303665548315</v>
       </c>
       <c r="T6">
-        <v>0.00221602758773293</v>
+        <v>0.0001013303665548314</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.5969289999999999</v>
+        <v>0.03342533333333333</v>
       </c>
       <c r="H7">
-        <v>1.790787</v>
+        <v>0.100276</v>
       </c>
       <c r="I7">
-        <v>0.009586266773405391</v>
+        <v>0.0004329552799629527</v>
       </c>
       <c r="J7">
-        <v>0.009586266773405391</v>
+        <v>0.0004329552799629526</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>103.785567</v>
       </c>
       <c r="O7">
-        <v>0.6049494580123129</v>
+        <v>0.6388539132363013</v>
       </c>
       <c r="P7">
-        <v>0.6049494580123129</v>
+        <v>0.6388539132363011</v>
       </c>
       <c r="Q7">
-        <v>20.650871574581</v>
+        <v>1.156355724054667</v>
       </c>
       <c r="R7">
-        <v>185.857844171229</v>
+        <v>10.407201516492</v>
       </c>
       <c r="S7">
-        <v>0.005799206888933035</v>
+        <v>0.0002765951748606507</v>
       </c>
       <c r="T7">
-        <v>0.005799206888933035</v>
+        <v>0.0002765951748606506</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.5969289999999999</v>
+        <v>0.03342533333333333</v>
       </c>
       <c r="H8">
-        <v>1.790787</v>
+        <v>0.100276</v>
       </c>
       <c r="I8">
-        <v>0.009586266773405391</v>
+        <v>0.0004329552799629527</v>
       </c>
       <c r="J8">
-        <v>0.009586266773405391</v>
+        <v>0.0004329552799629526</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.261089666666665</v>
+        <v>6.728406666666667</v>
       </c>
       <c r="N8">
-        <v>27.783269</v>
+        <v>20.18522</v>
       </c>
       <c r="O8">
-        <v>0.1619442279807586</v>
+        <v>0.1242504825987572</v>
       </c>
       <c r="P8">
-        <v>0.1619442279807586</v>
+        <v>0.1242504825987572</v>
       </c>
       <c r="Q8">
-        <v>5.528212993633665</v>
+        <v>0.2248992356355556</v>
       </c>
       <c r="R8">
-        <v>49.75391694270299</v>
+        <v>2.02409312072</v>
       </c>
       <c r="S8">
-        <v>0.001552440571836733</v>
+        <v>5.379490247907692E-05</v>
       </c>
       <c r="T8">
-        <v>0.001552440571836734</v>
+        <v>5.37949024790769E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,46 +971,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.5969289999999999</v>
+        <v>0.03342533333333333</v>
       </c>
       <c r="H9">
-        <v>1.790787</v>
+        <v>0.100276</v>
       </c>
       <c r="I9">
-        <v>0.009586266773405391</v>
+        <v>0.0004329552799629527</v>
       </c>
       <c r="J9">
-        <v>0.009586266773405391</v>
+        <v>0.0004329552799629526</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.110909</v>
+        <v>0.1544473333333333</v>
       </c>
       <c r="N9">
-        <v>0.332727</v>
+        <v>0.463342</v>
       </c>
       <c r="O9">
-        <v>0.001939412426354648</v>
+        <v>0.002852109965027549</v>
       </c>
       <c r="P9">
-        <v>0.001939412426354648</v>
+        <v>0.002852109965027548</v>
       </c>
       <c r="Q9">
-        <v>0.06620479846099998</v>
+        <v>0.005162453599111111</v>
       </c>
       <c r="R9">
-        <v>0.595843186149</v>
+        <v>0.046462082392</v>
       </c>
       <c r="S9">
-        <v>1.859172490269309E-05</v>
+        <v>1.23483606839363E-06</v>
       </c>
       <c r="T9">
-        <v>1.859172490269309E-05</v>
+        <v>1.234836068393629E-06</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>61.65629333333334</v>
+        <v>77.07094833333333</v>
       </c>
       <c r="H10">
-        <v>184.96888</v>
+        <v>231.212845</v>
       </c>
       <c r="I10">
-        <v>0.9901574159618143</v>
+        <v>0.9982929318880467</v>
       </c>
       <c r="J10">
-        <v>0.9901574159618142</v>
+        <v>0.9982929318880466</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>13.21972033333333</v>
+        <v>12.673913</v>
       </c>
       <c r="N10">
-        <v>39.659161</v>
+        <v>38.021739</v>
       </c>
       <c r="O10">
-        <v>0.2311669015805739</v>
+        <v>0.234043494199914</v>
       </c>
       <c r="P10">
-        <v>0.2311669015805739</v>
+        <v>0.234043494199914</v>
       </c>
       <c r="Q10">
-        <v>815.0789546566313</v>
+        <v>976.7904940041616</v>
       </c>
       <c r="R10">
-        <v>7335.710591909681</v>
+        <v>8791.114446037454</v>
       </c>
       <c r="S10">
-        <v>0.2288916219249201</v>
+        <v>0.2336439660141552</v>
       </c>
       <c r="T10">
-        <v>0.2288916219249201</v>
+        <v>0.2336439660141552</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>61.65629333333334</v>
+        <v>77.07094833333333</v>
       </c>
       <c r="H11">
-        <v>184.96888</v>
+        <v>231.212845</v>
       </c>
       <c r="I11">
-        <v>0.9901574159618143</v>
+        <v>0.9982929318880467</v>
       </c>
       <c r="J11">
-        <v>0.9901574159618142</v>
+        <v>0.9982929318880466</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>103.785567</v>
       </c>
       <c r="O11">
-        <v>0.6049494580123129</v>
+        <v>0.6388539132363013</v>
       </c>
       <c r="P11">
-        <v>0.6049494580123129</v>
+        <v>0.6388539132363011</v>
       </c>
       <c r="Q11">
-        <v>2133.011120906106</v>
+        <v>2666.284024000901</v>
       </c>
       <c r="R11">
-        <v>19197.10008815496</v>
+        <v>23996.55621600812</v>
       </c>
       <c r="S11">
-        <v>0.5989951921329718</v>
+        <v>0.6377633460928189</v>
       </c>
       <c r="T11">
-        <v>0.5989951921329718</v>
+        <v>0.6377633460928188</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>61.65629333333334</v>
+        <v>77.07094833333333</v>
       </c>
       <c r="H12">
-        <v>184.96888</v>
+        <v>231.212845</v>
       </c>
       <c r="I12">
-        <v>0.9901574159618143</v>
+        <v>0.9982929318880467</v>
       </c>
       <c r="J12">
-        <v>0.9901574159618142</v>
+        <v>0.9982929318880466</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>9.261089666666665</v>
+        <v>6.728406666666667</v>
       </c>
       <c r="N12">
-        <v>27.783269</v>
+        <v>20.18522</v>
       </c>
       <c r="O12">
-        <v>0.1619442279807586</v>
+        <v>0.1242504825987572</v>
       </c>
       <c r="P12">
-        <v>0.1619442279807586</v>
+        <v>0.1242504825987572</v>
       </c>
       <c r="Q12">
-        <v>571.0044610743022</v>
+        <v>518.5646825723222</v>
       </c>
       <c r="R12">
-        <v>5139.04014966872</v>
+        <v>4667.0821431509</v>
       </c>
       <c r="S12">
-        <v>0.1603502783073588</v>
+        <v>0.1240383785620181</v>
       </c>
       <c r="T12">
-        <v>0.1603502783073588</v>
+        <v>0.1240383785620181</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>61.65629333333334</v>
+        <v>77.07094833333333</v>
       </c>
       <c r="H13">
-        <v>184.96888</v>
+        <v>231.212845</v>
       </c>
       <c r="I13">
-        <v>0.9901574159618143</v>
+        <v>0.9982929318880467</v>
       </c>
       <c r="J13">
-        <v>0.9901574159618142</v>
+        <v>0.9982929318880466</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.110909</v>
+        <v>0.1544473333333333</v>
       </c>
       <c r="N13">
-        <v>0.332727</v>
+        <v>0.463342</v>
       </c>
       <c r="O13">
-        <v>0.001939412426354648</v>
+        <v>0.002852109965027549</v>
       </c>
       <c r="P13">
-        <v>0.001939412426354648</v>
+        <v>0.002852109965027548</v>
       </c>
       <c r="Q13">
-        <v>6.838237837306667</v>
+        <v>11.90340244755444</v>
       </c>
       <c r="R13">
-        <v>61.54414053576</v>
+        <v>107.13062202799</v>
       </c>
       <c r="S13">
-        <v>0.00192032359656355</v>
+        <v>0.002847241219054466</v>
       </c>
       <c r="T13">
-        <v>0.00192032359656355</v>
+        <v>0.002847241219054465</v>
       </c>
     </row>
   </sheetData>
